--- a/GRUDZIEŃ/zlecenia 18.12/rozjazdy.xlsx
+++ b/GRUDZIEŃ/zlecenia 18.12/rozjazdy.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\Grudzień\zlecenia 18.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\GRUDZIEŃ\zlecenia 18.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25820" windowHeight="11540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2018_12_18s.s" sheetId="1" r:id="rId1"/>
+    <sheet name="27.12" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="77">
   <si>
     <t>Nr DM</t>
   </si>
@@ -247,13 +248,16 @@
   </si>
   <si>
     <t>GEN. HALLERA 145/2, 53-201 WROCŁAW // WSPÓLNA 3, 55-330 WILKSZYN</t>
+  </si>
+  <si>
+    <t>wykonane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +417,23 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -595,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -710,6 +731,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -755,9 +791,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -859,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,7 +934,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,547 +1119,550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3">
         <v>3256685</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1301663</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4">
         <v>3256734</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1301663</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
         <v>3256762</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I5">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
         <v>3256764</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I6">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7">
         <v>2967358</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
         <v>3256670</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>2966825</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>3256788</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>3256791</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>3256790</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>3256663</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>2652454</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>2628430</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7741531</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>2949099</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>2961650</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>2662172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2966825</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3256788</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>2663720</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3256791</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3256790</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3256663</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2652454</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I19" t="s">
         <v>66</v>
       </c>
-      <c r="I14">
-        <v>40</v>
-      </c>
-      <c r="J14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2628430</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <v>7741531</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2949099</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2961650</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2662172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2663720</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19">
+      <c r="J19">
         <v>40</v>
       </c>
     </row>
@@ -1627,4 +1670,268 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4">
+        <v>2663720</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2662172</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2949099</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>2961650</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>2652454</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>3256685</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1301663</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>3256734</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1301663</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>